--- a/2561.01.30_ลุ่มต่ำ/resource/drain.xlsx
+++ b/2561.01.30_ลุ่มต่ำ/resource/drain.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId1"/>
     <sheet name="โครงการฯโพธิ์พระยา" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>ชื่อทุ่ง :</t>
   </si>
@@ -86,6 +87,35 @@
   <si>
     <t>ผลต่างปริมาณน้ำที่ระบายและปริมาณน้ำเข้า</t>
   </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="TH SarabunPSK"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>สิ้นสุดแผนการระบายน้ำเดิม 45 วัน</t>
+  </si>
+  <si>
+    <t>ปริมาณน้ำในทุ่งสะสะม</t>
+  </si>
 </sst>
 </file>
 
@@ -95,11 +125,17 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -180,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -272,97 +308,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="38">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -370,6 +455,17 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -377,12 +473,668 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.04656932861203"/>
+          <c:y val="0.089149560117302"/>
+          <c:w val="0.934199902157201"/>
+          <c:h val="0.675701480711137"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ปริมาณน้ำในทุ่งสะสะม</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>43040.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43041.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43042.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43043.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43044.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43045.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43046.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43047.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43049.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43050.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43051.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43052.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43053.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43054.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43055.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43056.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43057.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43058.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43059.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43060.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43061.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43062.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43063.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43064.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43065.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43066.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43067.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43068.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43069.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43070.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43071.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43072.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43073.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43074.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43075.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43076.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43077.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43078.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43079.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43080.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43081.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43082.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43083.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43084.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43085.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43086.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43087.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43088.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43089.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43090.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43091.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43092.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43093.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43094.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43095.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43096.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43097.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43098.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43099.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43100.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43101.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43102.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43103.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43104.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43105.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43106.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43107.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43108.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43109.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43110.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43111.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>181.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>170.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165.43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>163.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>161.97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160.24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>159.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>158.51</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156.78</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>154.76</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>152.84</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>151.975</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>151.11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>149.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>148.515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>146.785</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>145.055</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>138.88</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>133.79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126.99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>118.67</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>115.92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>112.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108.03</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>103.05</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98.66999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>91.85</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.64</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85.57000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79.89000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75.92000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>73.90000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.84000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>69.59000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>67.12000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64.01000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.22000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>52.59000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.52000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45.68000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.46000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>39.03000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.17000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ปริมาณน้ำในทุ่งสะสะม</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$3:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43040.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43111.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2109979128"/>
+        <c:axId val="2100046264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2109979128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43111.0"/>
+          <c:min val="43040.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-1070000]d/m/yy;@" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100046264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2100046264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2109979128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:E76"/>
+  <dimension ref="C1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -718,15 +1470,16 @@
     <col min="1" max="3" width="10.83203125" style="14"/>
     <col min="4" max="4" width="38" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="14"/>
+    <col min="6" max="6" width="25.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5">
-      <c r="E1" s="15" t="s">
+    <row r="1" spans="3:6">
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:6">
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -736,8 +1489,11 @@
       <c r="E2" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="3:5" ht="20" thickBot="1">
+      <c r="F2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="20" thickBot="1">
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
@@ -747,8 +1503,11 @@
       <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" ht="20" thickTop="1">
+      <c r="F3" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="20" thickTop="1">
       <c r="C4" s="18">
         <v>43040</v>
       </c>
@@ -758,8 +1517,9 @@
       <c r="E4" s="19">
         <v>181.65</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="3:6">
       <c r="C5" s="20">
         <v>43041</v>
       </c>
@@ -769,8 +1529,9 @@
       <c r="E5" s="21">
         <v>178.6</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="3:6">
       <c r="C6" s="20">
         <v>43042</v>
       </c>
@@ -780,8 +1541,9 @@
       <c r="E6" s="21">
         <v>176.87</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7" s="20">
         <v>43043</v>
       </c>
@@ -791,8 +1553,9 @@
       <c r="E7" s="21">
         <v>175.14</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" s="20">
         <v>43044</v>
       </c>
@@ -802,8 +1565,9 @@
       <c r="E8" s="21">
         <v>173.41</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="3:6">
       <c r="C9" s="22">
         <v>43045</v>
       </c>
@@ -813,8 +1577,9 @@
       <c r="E9" s="23">
         <v>171.68</v>
       </c>
-    </row>
-    <row r="10" spans="3:5">
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="3:6">
       <c r="C10" s="22">
         <v>43046</v>
       </c>
@@ -824,8 +1589,9 @@
       <c r="E10" s="23">
         <v>170.55</v>
       </c>
-    </row>
-    <row r="11" spans="3:5">
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="3:6">
       <c r="C11" s="22">
         <v>43047</v>
       </c>
@@ -835,8 +1601,9 @@
       <c r="E11" s="23">
         <v>169.42000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="3:5">
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12" s="22">
         <v>43048</v>
       </c>
@@ -846,8 +1613,9 @@
       <c r="E12" s="23">
         <v>168.29000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="3:5">
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="3:6">
       <c r="C13" s="22">
         <v>43049</v>
       </c>
@@ -857,8 +1625,9 @@
       <c r="E13" s="23">
         <v>167.16000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="3:5">
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="3:6">
       <c r="C14" s="24">
         <v>43050</v>
       </c>
@@ -868,8 +1637,9 @@
       <c r="E14" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="15" spans="3:5">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="3:6">
       <c r="C15" s="20">
         <v>43051</v>
       </c>
@@ -879,8 +1649,9 @@
       <c r="E15" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="16" spans="3:5">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="3:6">
       <c r="C16" s="20">
         <v>43052</v>
       </c>
@@ -890,8 +1661,9 @@
       <c r="E16" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" s="20">
         <v>43053</v>
       </c>
@@ -901,8 +1673,9 @@
       <c r="E17" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="18" spans="3:5">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" s="20">
         <v>43054</v>
       </c>
@@ -912,8 +1685,9 @@
       <c r="E18" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" s="22">
         <v>43055</v>
       </c>
@@ -923,8 +1697,9 @@
       <c r="E19" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" s="22">
         <v>43056</v>
       </c>
@@ -934,8 +1709,9 @@
       <c r="E20" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" s="22">
         <v>43057</v>
       </c>
@@ -945,8 +1721,9 @@
       <c r="E21" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" s="22">
         <v>43058</v>
       </c>
@@ -956,8 +1733,9 @@
       <c r="E22" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="23" spans="3:5">
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" s="22">
         <v>43059</v>
       </c>
@@ -967,8 +1745,9 @@
       <c r="E23" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" s="24">
         <v>43060</v>
       </c>
@@ -978,8 +1757,9 @@
       <c r="E24" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="25" spans="3:5">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" s="20">
         <v>43061</v>
       </c>
@@ -989,8 +1769,9 @@
       <c r="E25" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" s="20">
         <v>43062</v>
       </c>
@@ -1000,8 +1781,9 @@
       <c r="E26" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" s="20">
         <v>43063</v>
       </c>
@@ -1011,8 +1793,9 @@
       <c r="E27" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="28" spans="3:5">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" s="20">
         <v>43064</v>
       </c>
@@ -1022,8 +1805,9 @@
       <c r="E28" s="21">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="29" spans="3:5">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" s="22">
         <v>43065</v>
       </c>
@@ -1033,8 +1817,9 @@
       <c r="E29" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="30" spans="3:5">
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" s="22">
         <v>43066</v>
       </c>
@@ -1044,8 +1829,9 @@
       <c r="E30" s="23">
         <v>167.16</v>
       </c>
-    </row>
-    <row r="31" spans="3:5">
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" s="22">
         <v>43067</v>
       </c>
@@ -1055,8 +1841,9 @@
       <c r="E31" s="23">
         <v>165.43</v>
       </c>
-    </row>
-    <row r="32" spans="3:5">
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" s="22">
         <v>43068</v>
       </c>
@@ -1066,8 +1853,9 @@
       <c r="E32" s="23">
         <v>163.70000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="3:5">
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="22">
         <v>43069</v>
       </c>
@@ -1077,8 +1865,9 @@
       <c r="E33" s="23">
         <v>161.97000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="3:5">
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="24">
         <v>43070</v>
       </c>
@@ -1088,8 +1877,9 @@
       <c r="E34" s="21">
         <v>160.24000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="3:5">
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" s="20">
         <v>43071</v>
       </c>
@@ -1099,8 +1889,9 @@
       <c r="E35" s="21">
         <v>159.37500000000003</v>
       </c>
-    </row>
-    <row r="36" spans="3:5">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" s="20">
         <v>43072</v>
       </c>
@@ -1110,8 +1901,9 @@
       <c r="E36" s="21">
         <v>158.51000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="3:5">
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" s="20">
         <v>43073</v>
       </c>
@@ -1121,8 +1913,9 @@
       <c r="E37" s="21">
         <v>156.78000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="3:5">
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="3:6">
       <c r="C38" s="20">
         <v>43074</v>
       </c>
@@ -1132,8 +1925,9 @@
       <c r="E38" s="21">
         <v>154.76000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" s="22">
         <v>43075</v>
       </c>
@@ -1143,8 +1937,9 @@
       <c r="E39" s="23">
         <v>152.84000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="3:5">
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" s="22">
         <v>43076</v>
       </c>
@@ -1154,8 +1949,9 @@
       <c r="E40" s="23">
         <v>151.97500000000002</v>
       </c>
-    </row>
-    <row r="41" spans="3:5">
+      <c r="F40" s="23"/>
+    </row>
+    <row r="41" spans="3:6">
       <c r="C41" s="22">
         <v>43077</v>
       </c>
@@ -1165,8 +1961,9 @@
       <c r="E41" s="23">
         <v>151.11000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="3:6">
       <c r="C42" s="22">
         <v>43078</v>
       </c>
@@ -1176,8 +1973,9 @@
       <c r="E42" s="23">
         <v>149.38000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="3:5">
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="3:6">
       <c r="C43" s="22">
         <v>43079</v>
       </c>
@@ -1187,8 +1985,9 @@
       <c r="E43" s="23">
         <v>148.51500000000001</v>
       </c>
-    </row>
-    <row r="44" spans="3:5">
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="3:6">
       <c r="C44" s="24">
         <v>43080</v>
       </c>
@@ -1198,8 +1997,9 @@
       <c r="E44" s="21">
         <v>146.78500000000003</v>
       </c>
-    </row>
-    <row r="45" spans="3:5">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="3:6">
       <c r="C45" s="20">
         <v>43081</v>
       </c>
@@ -1209,8 +2009,9 @@
       <c r="E45" s="21">
         <v>145.05500000000004</v>
       </c>
-    </row>
-    <row r="46" spans="3:5">
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="3:6">
       <c r="C46" s="20">
         <v>43082</v>
       </c>
@@ -1220,8 +2021,9 @@
       <c r="E46" s="21">
         <v>138.88000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="3:6">
       <c r="C47" s="20">
         <v>43083</v>
       </c>
@@ -1231,8 +2033,9 @@
       <c r="E47" s="21">
         <v>133.79000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="3:5">
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="3:6">
       <c r="C48" s="20">
         <v>43084</v>
       </c>
@@ -1242,8 +2045,11 @@
       <c r="E48" s="21">
         <v>126.99</v>
       </c>
-    </row>
-    <row r="49" spans="3:5">
+      <c r="F48" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
       <c r="C49" s="22">
         <v>43085</v>
       </c>
@@ -1253,8 +2059,9 @@
       <c r="E49" s="23">
         <v>121.89999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="3:5">
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="3:6">
       <c r="C50" s="22">
         <v>43086</v>
       </c>
@@ -1264,8 +2071,9 @@
       <c r="E50" s="23">
         <v>118.66999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="3:5">
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="3:6">
       <c r="C51" s="22">
         <v>43087</v>
       </c>
@@ -1275,8 +2083,9 @@
       <c r="E51" s="23">
         <v>115.91999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="3:5">
+      <c r="F51" s="23"/>
+    </row>
+    <row r="52" spans="3:6">
       <c r="C52" s="22">
         <v>43088</v>
       </c>
@@ -1286,8 +2095,9 @@
       <c r="E52" s="23">
         <v>112.74999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="3:5">
+      <c r="F52" s="23"/>
+    </row>
+    <row r="53" spans="3:6">
       <c r="C53" s="22">
         <v>43089</v>
       </c>
@@ -1297,8 +2107,9 @@
       <c r="E53" s="23">
         <v>108.02999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="3:5">
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="3:6">
       <c r="C54" s="24">
         <v>43090</v>
       </c>
@@ -1308,8 +2119,9 @@
       <c r="E54" s="21">
         <v>103.04999999999998</v>
       </c>
-    </row>
-    <row r="55" spans="3:5">
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="3:6">
       <c r="C55" s="20">
         <v>43091</v>
       </c>
@@ -1319,8 +2131,9 @@
       <c r="E55" s="21">
         <v>98.669999999999987</v>
       </c>
-    </row>
-    <row r="56" spans="3:5">
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="3:6">
       <c r="C56" s="20">
         <v>43092</v>
       </c>
@@ -1330,8 +2143,9 @@
       <c r="E56" s="21">
         <v>94.899999999999991</v>
       </c>
-    </row>
-    <row r="57" spans="3:5">
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="3:6">
       <c r="C57" s="20">
         <v>43093</v>
       </c>
@@ -1341,8 +2155,9 @@
       <c r="E57" s="21">
         <v>91.85</v>
       </c>
-    </row>
-    <row r="58" spans="3:5">
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="3:6">
       <c r="C58" s="20">
         <v>43094</v>
       </c>
@@ -1352,8 +2167,9 @@
       <c r="E58" s="21">
         <v>88.64</v>
       </c>
-    </row>
-    <row r="59" spans="3:5">
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="3:6">
       <c r="C59" s="22">
         <v>43095</v>
       </c>
@@ -1363,8 +2179,9 @@
       <c r="E59" s="23">
         <v>85.570000000000007</v>
       </c>
-    </row>
-    <row r="60" spans="3:5">
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="3:6">
       <c r="C60" s="22">
         <v>43096</v>
       </c>
@@ -1374,8 +2191,9 @@
       <c r="E60" s="23">
         <v>82.52000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="3:5">
+      <c r="F60" s="23"/>
+    </row>
+    <row r="61" spans="3:6">
       <c r="C61" s="22">
         <v>43097</v>
       </c>
@@ -1385,8 +2203,9 @@
       <c r="E61" s="23">
         <v>79.890000000000015</v>
       </c>
-    </row>
-    <row r="62" spans="3:5">
+      <c r="F61" s="23"/>
+    </row>
+    <row r="62" spans="3:6">
       <c r="C62" s="22">
         <v>43098</v>
       </c>
@@ -1396,8 +2215,9 @@
       <c r="E62" s="23">
         <v>78.79000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="3:5">
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="3:6">
       <c r="C63" s="22">
         <v>43099</v>
       </c>
@@ -1407,8 +2227,9 @@
       <c r="E63" s="23">
         <v>75.920000000000016</v>
       </c>
-    </row>
-    <row r="64" spans="3:5">
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="3:6">
       <c r="C64" s="24">
         <v>43100</v>
       </c>
@@ -1418,8 +2239,9 @@
       <c r="E64" s="21">
         <v>73.90000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="3:5">
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="3:6">
       <c r="C65" s="20">
         <v>43101</v>
       </c>
@@ -1429,8 +2251,9 @@
       <c r="E65" s="21">
         <v>71.840000000000018</v>
       </c>
-    </row>
-    <row r="66" spans="3:5">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="3:6">
       <c r="C66" s="20">
         <v>43102</v>
       </c>
@@ -1440,8 +2263,9 @@
       <c r="E66" s="21">
         <v>69.590000000000018</v>
       </c>
-    </row>
-    <row r="67" spans="3:5">
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="3:6">
       <c r="C67" s="20">
         <v>43103</v>
       </c>
@@ -1451,8 +2275,9 @@
       <c r="E67" s="21">
         <v>67.120000000000019</v>
       </c>
-    </row>
-    <row r="68" spans="3:5">
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="3:6">
       <c r="C68" s="20">
         <v>43104</v>
       </c>
@@ -1462,8 +2287,9 @@
       <c r="E68" s="21">
         <v>64.010000000000019</v>
       </c>
-    </row>
-    <row r="69" spans="3:5">
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="3:6">
       <c r="C69" s="22">
         <v>43105</v>
       </c>
@@ -1473,8 +2299,9 @@
       <c r="E69" s="23">
         <v>58.22000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="3:5">
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="3:6">
       <c r="C70" s="22">
         <v>43106</v>
       </c>
@@ -1484,8 +2311,9 @@
       <c r="E70" s="23">
         <v>52.590000000000018</v>
       </c>
-    </row>
-    <row r="71" spans="3:5">
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="3:6">
       <c r="C71" s="22">
         <v>43107</v>
       </c>
@@ -1495,8 +2323,9 @@
       <c r="E71" s="23">
         <v>48.520000000000017</v>
       </c>
-    </row>
-    <row r="72" spans="3:5">
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="3:6">
       <c r="C72" s="22">
         <v>43108</v>
       </c>
@@ -1506,8 +2335,9 @@
       <c r="E72" s="23">
         <v>45.680000000000021</v>
       </c>
-    </row>
-    <row r="73" spans="3:5">
+      <c r="F72" s="23"/>
+    </row>
+    <row r="73" spans="3:6">
       <c r="C73" s="22">
         <v>43109</v>
       </c>
@@ -1517,8 +2347,9 @@
       <c r="E73" s="23">
         <v>43.460000000000022</v>
       </c>
-    </row>
-    <row r="74" spans="3:5">
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="3:6">
       <c r="C74" s="24">
         <v>43110</v>
       </c>
@@ -1528,26 +2359,28 @@
       <c r="E74" s="21">
         <v>39.030000000000022</v>
       </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75" s="20">
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="3:6" ht="20" thickBot="1">
+      <c r="C75" s="27">
         <v>43111</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="28">
         <v>4.68</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="28">
         <v>34.170000000000023</v>
       </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" s="20"/>
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="3:6" ht="20" thickTop="1">
+      <c r="C76" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="C3:E3" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:F3" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -30983,11 +31816,633 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" thickBot="1">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="20" thickTop="1">
+      <c r="B3" s="18">
+        <v>43040</v>
+      </c>
+      <c r="C3" s="19">
+        <v>181.65</v>
+      </c>
+      <c r="E3" s="18">
+        <v>43040</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19">
+      <c r="B4" s="20">
+        <v>43041</v>
+      </c>
+      <c r="C4" s="21">
+        <v>178.6</v>
+      </c>
+      <c r="E4" s="20">
+        <v>43111</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19">
+      <c r="B5" s="20">
+        <v>43042</v>
+      </c>
+      <c r="C5" s="21">
+        <v>176.87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19">
+      <c r="B6" s="20">
+        <v>43043</v>
+      </c>
+      <c r="C6" s="21">
+        <v>175.14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19">
+      <c r="B7" s="20">
+        <v>43044</v>
+      </c>
+      <c r="C7" s="21">
+        <v>173.41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19">
+      <c r="B8" s="22">
+        <v>43045</v>
+      </c>
+      <c r="C8" s="23">
+        <v>171.68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19">
+      <c r="B9" s="22">
+        <v>43046</v>
+      </c>
+      <c r="C9" s="23">
+        <v>170.55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19">
+      <c r="B10" s="22">
+        <v>43047</v>
+      </c>
+      <c r="C10" s="23">
+        <v>169.42000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19">
+      <c r="B11" s="22">
+        <v>43048</v>
+      </c>
+      <c r="C11" s="23">
+        <v>168.29000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19">
+      <c r="B12" s="22">
+        <v>43049</v>
+      </c>
+      <c r="C12" s="23">
+        <v>167.16000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19">
+      <c r="B13" s="24">
+        <v>43050</v>
+      </c>
+      <c r="C13" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19">
+      <c r="B14" s="20">
+        <v>43051</v>
+      </c>
+      <c r="C14" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19">
+      <c r="B15" s="20">
+        <v>43052</v>
+      </c>
+      <c r="C15" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19">
+      <c r="B16" s="20">
+        <v>43053</v>
+      </c>
+      <c r="C16" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="19">
+      <c r="B17" s="20">
+        <v>43054</v>
+      </c>
+      <c r="C17" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="19">
+      <c r="B18" s="22">
+        <v>43055</v>
+      </c>
+      <c r="C18" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="19">
+      <c r="B19" s="22">
+        <v>43056</v>
+      </c>
+      <c r="C19" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="19">
+      <c r="B20" s="22">
+        <v>43057</v>
+      </c>
+      <c r="C20" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="19">
+      <c r="B21" s="22">
+        <v>43058</v>
+      </c>
+      <c r="C21" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="19">
+      <c r="B22" s="22">
+        <v>43059</v>
+      </c>
+      <c r="C22" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="19">
+      <c r="B23" s="24">
+        <v>43060</v>
+      </c>
+      <c r="C23" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="19">
+      <c r="B24" s="20">
+        <v>43061</v>
+      </c>
+      <c r="C24" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="19">
+      <c r="B25" s="20">
+        <v>43062</v>
+      </c>
+      <c r="C25" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="19">
+      <c r="B26" s="20">
+        <v>43063</v>
+      </c>
+      <c r="C26" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="19">
+      <c r="B27" s="20">
+        <v>43064</v>
+      </c>
+      <c r="C27" s="21">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="19">
+      <c r="B28" s="22">
+        <v>43065</v>
+      </c>
+      <c r="C28" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="19">
+      <c r="B29" s="22">
+        <v>43066</v>
+      </c>
+      <c r="C29" s="23">
+        <v>167.16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="19">
+      <c r="B30" s="22">
+        <v>43067</v>
+      </c>
+      <c r="C30" s="23">
+        <v>165.43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="19">
+      <c r="B31" s="22">
+        <v>43068</v>
+      </c>
+      <c r="C31" s="23">
+        <v>163.70000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="19">
+      <c r="B32" s="22">
+        <v>43069</v>
+      </c>
+      <c r="C32" s="23">
+        <v>161.97000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="19">
+      <c r="B33" s="24">
+        <v>43070</v>
+      </c>
+      <c r="C33" s="21">
+        <v>160.24000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="19">
+      <c r="B34" s="20">
+        <v>43071</v>
+      </c>
+      <c r="C34" s="21">
+        <v>159.37500000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="19">
+      <c r="B35" s="20">
+        <v>43072</v>
+      </c>
+      <c r="C35" s="21">
+        <v>158.51000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="19">
+      <c r="B36" s="20">
+        <v>43073</v>
+      </c>
+      <c r="C36" s="21">
+        <v>156.78000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="19">
+      <c r="B37" s="20">
+        <v>43074</v>
+      </c>
+      <c r="C37" s="21">
+        <v>154.76000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="19">
+      <c r="B38" s="22">
+        <v>43075</v>
+      </c>
+      <c r="C38" s="23">
+        <v>152.84000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="19">
+      <c r="B39" s="22">
+        <v>43076</v>
+      </c>
+      <c r="C39" s="23">
+        <v>151.97500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="19">
+      <c r="B40" s="22">
+        <v>43077</v>
+      </c>
+      <c r="C40" s="23">
+        <v>151.11000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="19">
+      <c r="B41" s="22">
+        <v>43078</v>
+      </c>
+      <c r="C41" s="23">
+        <v>149.38000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="19">
+      <c r="B42" s="22">
+        <v>43079</v>
+      </c>
+      <c r="C42" s="23">
+        <v>148.51500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="19">
+      <c r="B43" s="24">
+        <v>43080</v>
+      </c>
+      <c r="C43" s="21">
+        <v>146.78500000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="19">
+      <c r="B44" s="20">
+        <v>43081</v>
+      </c>
+      <c r="C44" s="21">
+        <v>145.05500000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="19">
+      <c r="B45" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C45" s="21">
+        <v>138.88000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="19">
+      <c r="B46" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C46" s="21">
+        <v>133.79000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="19">
+      <c r="B47" s="20">
+        <v>43084</v>
+      </c>
+      <c r="C47" s="21">
+        <v>126.99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="19">
+      <c r="B48" s="22">
+        <v>43085</v>
+      </c>
+      <c r="C48" s="23">
+        <v>121.89999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="19">
+      <c r="B49" s="22">
+        <v>43086</v>
+      </c>
+      <c r="C49" s="23">
+        <v>118.66999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="19">
+      <c r="B50" s="22">
+        <v>43087</v>
+      </c>
+      <c r="C50" s="23">
+        <v>115.91999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="19">
+      <c r="B51" s="22">
+        <v>43088</v>
+      </c>
+      <c r="C51" s="23">
+        <v>112.74999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="19">
+      <c r="B52" s="22">
+        <v>43089</v>
+      </c>
+      <c r="C52" s="23">
+        <v>108.02999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="19">
+      <c r="B53" s="24">
+        <v>43090</v>
+      </c>
+      <c r="C53" s="21">
+        <v>103.04999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="19">
+      <c r="B54" s="20">
+        <v>43091</v>
+      </c>
+      <c r="C54" s="21">
+        <v>98.669999999999987</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="19">
+      <c r="B55" s="20">
+        <v>43092</v>
+      </c>
+      <c r="C55" s="21">
+        <v>94.899999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="19">
+      <c r="B56" s="20">
+        <v>43093</v>
+      </c>
+      <c r="C56" s="21">
+        <v>91.85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="19">
+      <c r="B57" s="20">
+        <v>43094</v>
+      </c>
+      <c r="C57" s="21">
+        <v>88.64</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="19">
+      <c r="B58" s="22">
+        <v>43095</v>
+      </c>
+      <c r="C58" s="23">
+        <v>85.570000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="19">
+      <c r="B59" s="22">
+        <v>43096</v>
+      </c>
+      <c r="C59" s="23">
+        <v>82.52000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="19">
+      <c r="B60" s="22">
+        <v>43097</v>
+      </c>
+      <c r="C60" s="23">
+        <v>79.890000000000015</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="19">
+      <c r="B61" s="22">
+        <v>43098</v>
+      </c>
+      <c r="C61" s="23">
+        <v>78.79000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="19">
+      <c r="B62" s="22">
+        <v>43099</v>
+      </c>
+      <c r="C62" s="23">
+        <v>75.920000000000016</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="19">
+      <c r="B63" s="24">
+        <v>43100</v>
+      </c>
+      <c r="C63" s="21">
+        <v>73.90000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="19">
+      <c r="B64" s="20">
+        <v>43101</v>
+      </c>
+      <c r="C64" s="21">
+        <v>71.840000000000018</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="19">
+      <c r="B65" s="20">
+        <v>43102</v>
+      </c>
+      <c r="C65" s="21">
+        <v>69.590000000000018</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="19">
+      <c r="B66" s="20">
+        <v>43103</v>
+      </c>
+      <c r="C66" s="21">
+        <v>67.120000000000019</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="19">
+      <c r="B67" s="20">
+        <v>43104</v>
+      </c>
+      <c r="C67" s="21">
+        <v>64.010000000000019</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="19">
+      <c r="B68" s="22">
+        <v>43105</v>
+      </c>
+      <c r="C68" s="23">
+        <v>58.22000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="19">
+      <c r="B69" s="22">
+        <v>43106</v>
+      </c>
+      <c r="C69" s="23">
+        <v>52.590000000000018</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="19">
+      <c r="B70" s="22">
+        <v>43107</v>
+      </c>
+      <c r="C70" s="23">
+        <v>48.520000000000017</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="19">
+      <c r="B71" s="22">
+        <v>43108</v>
+      </c>
+      <c r="C71" s="23">
+        <v>45.680000000000021</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="19">
+      <c r="B72" s="22">
+        <v>43109</v>
+      </c>
+      <c r="C72" s="23">
+        <v>43.460000000000022</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="19">
+      <c r="B73" s="24">
+        <v>43110</v>
+      </c>
+      <c r="C73" s="21">
+        <v>39.030000000000022</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="19">
+      <c r="B74" s="20">
+        <v>43111</v>
+      </c>
+      <c r="C74" s="21">
+        <v>34.170000000000023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
